--- a/some google images/V2 Generation de reco d'objets dans image v2 (1).xlsx
+++ b/some google images/V2 Generation de reco d'objets dans image v2 (1).xlsx
@@ -5,24 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\my university files\internship now\github\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\my university files\internship now\github\some google images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7385FA1-AEFB-4A0A-A660-3FF3EF7A1E98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A0CF84-EFCB-4D8C-A698-C2398E049430}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Generator" sheetId="1" r:id="rId1"/>
-    <sheet name="classes" sheetId="5" r:id="rId2"/>
-    <sheet name="Fixed data random" sheetId="2" r:id="rId3"/>
-    <sheet name="simple data" sheetId="4" r:id="rId4"/>
-    <sheet name="fixed data" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId1"/>
+    <sheet name="Data Generator" sheetId="1" r:id="rId2"/>
+    <sheet name="classes" sheetId="5" r:id="rId3"/>
+    <sheet name="Fixed data random" sheetId="2" r:id="rId4"/>
+    <sheet name="simple data" sheetId="4" r:id="rId5"/>
+    <sheet name="fixed data" sheetId="3" r:id="rId6"/>
+    <sheet name="unique records" sheetId="7" r:id="rId7"/>
+    <sheet name="unique records contd" sheetId="8" r:id="rId8"/>
+    <sheet name="Feuil2" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'simple data'!$A$1:$H$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'unique records'!$A$2:$A$52</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'simple data'!$A$1:$H$52</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="6">'unique records'!$D:$D</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId10"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="190">
   <si>
     <t xml:space="preserve">Depth scale </t>
   </si>
@@ -506,6 +515,129 @@
   <si>
     <t>object name</t>
   </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>property value</t>
+  </si>
+  <si>
+    <t>has on the left</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>has on the right</t>
+  </si>
+  <si>
+    <t>has on the top</t>
+  </si>
+  <si>
+    <t>has on the buttom</t>
+  </si>
+  <si>
+    <t>has in the center</t>
+  </si>
+  <si>
+    <t>has in the back</t>
+  </si>
+  <si>
+    <t>has in the front</t>
+  </si>
+  <si>
+    <t>has isolated object</t>
+  </si>
+  <si>
+    <t>nb of objects</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>has background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object </t>
+  </si>
+  <si>
+    <t xml:space="preserve">relation </t>
+  </si>
+  <si>
+    <t>left of</t>
+  </si>
+  <si>
+    <t>right of</t>
+  </si>
+  <si>
+    <t>top of</t>
+  </si>
+  <si>
+    <t>buttom of</t>
+  </si>
+  <si>
+    <t>further than</t>
+  </si>
+  <si>
+    <t>closer than</t>
+  </si>
+  <si>
+    <t>close to</t>
+  </si>
+  <si>
+    <t>far from</t>
+  </si>
+  <si>
+    <t>overlaping with</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>in front of</t>
+  </si>
+  <si>
+    <t>greater than</t>
+  </si>
+  <si>
+    <t>smaler than</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>has color</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>%of image</t>
+  </si>
+  <si>
+    <t>relation between 3 objects</t>
+  </si>
+  <si>
+    <t>inbetween in plan</t>
+  </si>
+  <si>
+    <t>inbetween in depth</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
 </sst>
 </file>
 
@@ -528,7 +660,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,6 +677,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -636,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,6 +822,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,6 +851,776 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="43937.60055127315" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="51" xr:uid="{2D4FA1F4-4160-4B70-AF6A-30F0A732B9C1}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A12:H63" sheet="Data Generator"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Image name" numFmtId="0">
+      <sharedItems count="22">
+        <s v="download (1).jpg.txt"/>
+        <s v="download (10).jpg.txt"/>
+        <s v="download (11).jpg.txt"/>
+        <s v="download (12).jpg.txt"/>
+        <s v="download (13).jpg.txt"/>
+        <s v="download (14).jpg.txt"/>
+        <s v="download (15).jpg.txt"/>
+        <s v="download (16).jpg.txt"/>
+        <s v="download (17).jpg.txt"/>
+        <s v="download (18).jpg.txt"/>
+        <s v="download (19).jpg.txt"/>
+        <s v="download (2).jpg.txt"/>
+        <s v="download (3).jpg.txt"/>
+        <s v="download (4).jpg.txt"/>
+        <s v="download (5).jpg.txt"/>
+        <s v="download (6).jpg.txt"/>
+        <s v="download (7).jpg.txt"/>
+        <s v="download (8).jpg.txt"/>
+        <s v="download (9).jpg.txt"/>
+        <s v="download.jpg.txt"/>
+        <s v="images (1).jpg.txt"/>
+        <s v="images.jpg.txt"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Object number" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="60" count="11">
+        <n v="2"/>
+        <n v="15"/>
+        <n v="41"/>
+        <n v="60"/>
+        <n v="20"/>
+        <n v="19"/>
+        <n v="16"/>
+        <n v="0"/>
+        <n v="5"/>
+        <n v="9"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="X1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="261"/>
+    </cacheField>
+    <cacheField name="Y1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="114"/>
+    </cacheField>
+    <cacheField name="X2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="300"/>
+    </cacheField>
+    <cacheField name="Y2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="88" maxValue="218"/>
+    </cacheField>
+    <cacheField name="object name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Depth" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="51">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="26"/>
+    <n v="22"/>
+    <n v="277"/>
+    <n v="144"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="47"/>
+    <n v="6"/>
+    <n v="276"/>
+    <n v="164"/>
+    <s v="cat"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="83"/>
+    <n v="114"/>
+    <s v="cup"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="3"/>
+    <n v="265"/>
+    <n v="164"/>
+    <s v="cat"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="181"/>
+    <n v="217"/>
+    <s v="cat"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="9"/>
+    <n v="221"/>
+    <n v="218"/>
+    <s v="diningtable"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="257"/>
+    <n v="159"/>
+    <s v="cat"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="84"/>
+    <n v="34"/>
+    <n v="209"/>
+    <n v="170"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="36"/>
+    <n v="88"/>
+    <n v="162"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="196"/>
+    <n v="55"/>
+    <n v="255"/>
+    <n v="114"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="77"/>
+    <n v="58"/>
+    <n v="155"/>
+    <n v="115"/>
+    <s v="cow"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="254"/>
+    <n v="50"/>
+    <n v="299"/>
+    <n v="116"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="7"/>
+    <n v="74"/>
+    <n v="71"/>
+    <n v="122"/>
+    <s v="cow"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="171"/>
+    <n v="83"/>
+    <n v="194"/>
+    <n v="118"/>
+    <s v="cow"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="241"/>
+    <n v="52"/>
+    <n v="300"/>
+    <n v="115"/>
+    <s v="cow"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="69"/>
+    <n v="74"/>
+    <n v="88"/>
+    <n v="118"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="79"/>
+    <n v="53"/>
+    <n v="162"/>
+    <n v="114"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="159"/>
+    <n v="96"/>
+    <n v="174"/>
+    <n v="117"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="41"/>
+    <n v="8"/>
+    <n v="169"/>
+    <n v="165"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="139"/>
+    <n v="85"/>
+    <n v="213"/>
+    <n v="165"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="21"/>
+    <n v="20"/>
+    <n v="200"/>
+    <n v="155"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="137"/>
+    <n v="91"/>
+    <n v="221"/>
+    <n v="155"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="48"/>
+    <n v="24"/>
+    <n v="197"/>
+    <n v="153"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="61"/>
+    <n v="259"/>
+    <n v="162"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="22"/>
+    <n v="6"/>
+    <n v="171"/>
+    <n v="133"/>
+    <s v="dog"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="48"/>
+    <n v="26"/>
+    <n v="249"/>
+    <n v="150"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="103"/>
+    <n v="104"/>
+    <n v="167"/>
+    <n v="146"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="54"/>
+    <n v="248"/>
+    <n v="131"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="234"/>
+    <n v="73"/>
+    <n v="270"/>
+    <n v="88"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="7"/>
+    <n v="245"/>
+    <n v="33"/>
+    <n v="279"/>
+    <n v="144"/>
+    <s v="person"/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="18"/>
+    <n v="64"/>
+    <n v="249"/>
+    <n v="155"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="18"/>
+    <n v="34"/>
+    <n v="241"/>
+    <n v="146"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="32"/>
+    <n v="275"/>
+    <n v="141"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="8"/>
+    <n v="9"/>
+    <n v="47"/>
+    <n v="231"/>
+    <n v="118"/>
+    <s v="bus"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="8"/>
+    <n v="26"/>
+    <n v="54"/>
+    <n v="247"/>
+    <n v="153"/>
+    <s v="bus"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="9"/>
+    <n v="4"/>
+    <n v="83"/>
+    <n v="8"/>
+    <n v="92"/>
+    <s v="traffic light"/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="8"/>
+    <n v="11"/>
+    <n v="28"/>
+    <n v="292"/>
+    <n v="142"/>
+    <s v="bus"/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="8"/>
+    <n v="15"/>
+    <n v="39"/>
+    <n v="242"/>
+    <n v="154"/>
+    <s v="bus"/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="7"/>
+    <n v="254"/>
+    <n v="96"/>
+    <n v="259"/>
+    <n v="126"/>
+    <s v="person"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="38"/>
+    <n v="64"/>
+    <n v="241"/>
+    <n v="154"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="4"/>
+    <n v="67"/>
+    <n v="35"/>
+    <n v="246"/>
+    <n v="157"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="10"/>
+    <n v="52"/>
+    <n v="36"/>
+    <n v="253"/>
+    <n v="175"/>
+    <s v="truck"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="102"/>
+    <n v="259"/>
+    <n v="193"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="10"/>
+    <n v="19"/>
+    <n v="65"/>
+    <n v="255"/>
+    <n v="194"/>
+    <s v="truck"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="60"/>
+    <n v="98"/>
+    <n v="259"/>
+    <n v="194"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="7"/>
+    <n v="156"/>
+    <n v="96"/>
+    <n v="291"/>
+    <n v="173"/>
+    <s v="person"/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="44"/>
+    <n v="167"/>
+    <n v="173"/>
+    <s v="car"/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="4"/>
+    <n v="86"/>
+    <n v="0"/>
+    <n v="250"/>
+    <n v="168"/>
+    <s v="elephant"/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="7"/>
+    <n v="261"/>
+    <n v="114"/>
+    <n v="286"/>
+    <n v="153"/>
+    <s v="person"/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="7"/>
+    <n v="41"/>
+    <n v="108"/>
+    <n v="63"/>
+    <n v="145"/>
+    <s v="person"/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="7"/>
+    <n v="42"/>
+    <n v="109"/>
+    <n v="62"/>
+    <n v="129"/>
+    <s v="person"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{584CE9C2-B25B-453D-99FA-020B8DB5391E}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:M27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1001,11 +1919,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6BA825-C76F-411B-9380-F028A8CB962E}">
+  <dimension ref="A3:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>41</v>
+      </c>
+      <c r="L4">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB510"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6950,11 +8053,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4AF922-9FE2-43CB-B870-DEC92CB840CB}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -7617,12 +8720,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G502"/>
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19134,7 +20237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E45514B-3CE0-48C6-A24C-9673144AFAEE}">
   <dimension ref="A1:H52"/>
   <sheetViews>
@@ -20514,12 +21617,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798A738B-BC13-47B1-A9FD-B2AE059FE2E2}">
   <dimension ref="A2:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G55"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21804,6 +22907,833 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74D3D7E-A9A4-4637-A0C9-E9D367C75243}">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E2E1C9-C008-4ABF-AB6F-ED807277CE5F}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D0B35F-55FA-4489-A1A3-DE3FA0264840}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="22"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
